--- a/data/ablation.xlsx
+++ b/data/ablation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32065" windowHeight="14605"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>无损网络</t>
   </si>
   <si>
-    <t>SNACK(Without Explicit Notification and Selective Not-Ack)</t>
+    <t>SNACK(Without Explicit Notification and Selective NACK)</t>
   </si>
   <si>
     <t>SNACK(Without Explicit Notification)</t>
@@ -62,7 +62,7 @@
     <numFmt numFmtId="176" formatCode="#,##0%"/>
     <numFmt numFmtId="177" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +75,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -552,148 +559,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,7 +731,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1090,17 +1097,17 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.1441441441441" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5765765765766" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.5765765765766" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.1442307692308" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5769230769231" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>766930</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="72" customHeight="1" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="47.25" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1140,7 @@
         <v>781287</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="39" customHeight="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="47.25" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>1029325</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:3">
+    <row r="5" s="1" customFormat="1" ht="47.25" customHeight="1" spans="1:3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>3450482</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="6" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>800257</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="7" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:3">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1184,7 @@
         <v>839815</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="8" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>900491</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="9" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>768493</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="10" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>773977</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+    <row r="11" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:3">
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>

--- a/data/ablation.xlsx
+++ b/data/ablation.xlsx
@@ -41,10 +41,10 @@
     <t>无损网络</t>
   </si>
   <si>
-    <t>SNACK(Without Explicit Notification and Selective NACK)</t>
+    <t>SNACK(WES)</t>
   </si>
   <si>
-    <t>SNACK(Without Explicit Notification)</t>
+    <t>SNACK(WE)</t>
   </si>
   <si>
     <t>SNACK</t>
@@ -62,7 +62,7 @@
     <numFmt numFmtId="176" formatCode="#,##0%"/>
     <numFmt numFmtId="177" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +75,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -559,148 +552,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1090,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1129,7 +1122,7 @@
         <v>766930</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="47.25" customHeight="1" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
